--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\aprendizado\programacao\python\acoes_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\files\projects\programacao\python\acoes_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C5F61D-7B2E-4CE5-A234-ADFF049C2755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE8B5E6-65FF-47C7-B330-106E5393090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>EPAR3</t>
   </si>
   <si>
-    <t>USIM5</t>
-  </si>
-  <si>
     <t>TKNO4</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>CMIN3</t>
+  </si>
+  <si>
+    <t>USIM6</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -465,52 +465,52 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
